--- a/Code/Results/Cases/Case_4_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.978214160486175</v>
+        <v>1.348055371403689</v>
       </c>
       <c r="C2">
-        <v>0.7345230236555267</v>
+        <v>0.2628968873353301</v>
       </c>
       <c r="D2">
-        <v>0.5612346874650029</v>
+        <v>0.6557819579275304</v>
       </c>
       <c r="E2">
-        <v>0.2510925388397141</v>
+        <v>0.2675972005155671</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007917360097323433</v>
+        <v>0.002470267621967948</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1491490467505656</v>
+        <v>0.1393798719812906</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6401108729019036</v>
+        <v>1.221051011966832</v>
       </c>
       <c r="O2">
-        <v>3.123625474147616</v>
+        <v>4.437661690615897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.58398102240966</v>
+        <v>1.239695700604386</v>
       </c>
       <c r="C3">
-        <v>0.6371356856172099</v>
+        <v>0.2349589806488552</v>
       </c>
       <c r="D3">
-        <v>0.5045518724150213</v>
+        <v>0.6455821278322844</v>
       </c>
       <c r="E3">
-        <v>0.2244318719874556</v>
+        <v>0.2625688216117723</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007977451279206548</v>
+        <v>0.002474190087930312</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1323324262884</v>
+        <v>0.1360303736405513</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6778835178701996</v>
+        <v>1.236415440659222</v>
       </c>
       <c r="O3">
-        <v>2.89242189271522</v>
+        <v>4.42089757341185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.343660593712855</v>
+        <v>1.17356139245976</v>
       </c>
       <c r="C4">
-        <v>0.5776424117665613</v>
+        <v>0.2178260734181379</v>
       </c>
       <c r="D4">
-        <v>0.4705857580011639</v>
+        <v>0.6396699616170451</v>
       </c>
       <c r="E4">
-        <v>0.2084469480606899</v>
+        <v>0.2596309926111005</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008015448979902725</v>
+        <v>0.002476726338975978</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1222430704284037</v>
+        <v>0.1340563102826238</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7022943823202077</v>
+        <v>1.246394274039631</v>
       </c>
       <c r="O4">
-        <v>2.758233197329901</v>
+        <v>4.413634057831871</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.246096661977845</v>
+        <v>1.146712050569192</v>
       </c>
       <c r="C5">
-        <v>0.5534586706872915</v>
+        <v>0.2108497353663097</v>
       </c>
       <c r="D5">
-        <v>0.4569361446571918</v>
+        <v>0.6373487835328717</v>
       </c>
       <c r="E5">
-        <v>0.2020206924315957</v>
+        <v>0.2584713667083136</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00080312188371568</v>
+        <v>0.002477792132379401</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1181850470449746</v>
+        <v>0.1332725640220005</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7125377838393625</v>
+        <v>1.250597730104886</v>
       </c>
       <c r="O5">
-        <v>2.705353256435814</v>
+        <v>4.411433926174595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.229916582625719</v>
+        <v>1.142259851547351</v>
       </c>
       <c r="C6">
-        <v>0.5494461749337347</v>
+        <v>0.2096916543624729</v>
       </c>
       <c r="D6">
-        <v>0.4546807017099468</v>
+        <v>0.6369686712002363</v>
       </c>
       <c r="E6">
-        <v>0.2009586639141432</v>
+        <v>0.2582810787505991</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008033854891967081</v>
+        <v>0.00247797105755181</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.11751428015247</v>
+        <v>0.133143672218452</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7142562613339365</v>
+        <v>1.251303984002259</v>
       </c>
       <c r="O6">
-        <v>2.696677256671364</v>
+        <v>4.411114427340436</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.342343407667158</v>
+        <v>1.173198883399721</v>
       </c>
       <c r="C7">
-        <v>0.5773160376098474</v>
+        <v>0.2177319657565988</v>
       </c>
       <c r="D7">
-        <v>0.4704009215219003</v>
+        <v>0.6396383008723774</v>
       </c>
       <c r="E7">
-        <v>0.2083599376021681</v>
+        <v>0.2596152014746451</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008015660490792165</v>
+        <v>0.002476740581902594</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1221881335038049</v>
+        <v>0.134045656662714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7024313442783914</v>
+        <v>1.246450408674395</v>
       </c>
       <c r="O7">
-        <v>2.757512931798971</v>
+        <v>4.413601312365302</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.84187816320167</v>
+        <v>1.31061047343303</v>
       </c>
       <c r="C8">
-        <v>0.7008709995097888</v>
+        <v>0.2532596082251359</v>
       </c>
       <c r="D8">
-        <v>0.541504971438286</v>
+        <v>0.6521922441298784</v>
       </c>
       <c r="E8">
-        <v>0.2418144206965849</v>
+        <v>0.2658323246812699</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007937856222407502</v>
+        <v>0.002471593617456525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1432979802206944</v>
+        <v>0.1382077984765004</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.652875434459002</v>
+        <v>1.226235521116131</v>
       </c>
       <c r="O8">
-        <v>3.042199300627829</v>
+        <v>4.431251355968669</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.838698398354495</v>
+        <v>1.583228403589487</v>
       </c>
       <c r="C9">
-        <v>0.9463608637283301</v>
+        <v>0.3230931164574145</v>
       </c>
       <c r="D9">
-        <v>0.6885050501586818</v>
+        <v>0.6795977730112952</v>
       </c>
       <c r="E9">
-        <v>0.3109173456278285</v>
+        <v>0.2792148934170413</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007793606756178335</v>
+        <v>0.00246251004796067</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.186858828991916</v>
+        <v>0.1470277948504943</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5658759898443009</v>
+        <v>1.190920491936879</v>
       </c>
       <c r="O9">
-        <v>3.669531167281036</v>
+        <v>4.490003301918989</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.5868473277215</v>
+        <v>1.785450617833419</v>
       </c>
       <c r="C10">
-        <v>1.129905976425107</v>
+        <v>0.3745006453180508</v>
       </c>
       <c r="D10">
-        <v>0.8025285694148465</v>
+        <v>0.7014428757124165</v>
       </c>
       <c r="E10">
-        <v>0.3645026787961783</v>
+        <v>0.2897795712128826</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007692071987804648</v>
+        <v>0.002456445181701357</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.220629032588846</v>
+        <v>0.1539142153309996</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5089363597678442</v>
+        <v>1.167614206818115</v>
       </c>
       <c r="O10">
-        <v>4.183816891259141</v>
+        <v>4.548037263180504</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.931944330292026</v>
+        <v>1.877868854367932</v>
       </c>
       <c r="C11">
-        <v>1.214406975694487</v>
+        <v>0.3979097483191367</v>
       </c>
       <c r="D11">
-        <v>0.8560602668578383</v>
+        <v>0.7117547719169295</v>
       </c>
       <c r="E11">
-        <v>0.3896618003943217</v>
+        <v>0.2947462956441456</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000764669170278651</v>
+        <v>0.002453816900889723</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2364871875308552</v>
+        <v>0.1571364530004047</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4847399241788608</v>
+        <v>1.157585348399216</v>
       </c>
       <c r="O11">
-        <v>4.432179353541983</v>
+        <v>4.577700959428455</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.063429807733485</v>
+        <v>1.912926323236377</v>
       </c>
       <c r="C12">
-        <v>1.24657872997409</v>
+        <v>0.4067774866508671</v>
       </c>
       <c r="D12">
-        <v>0.8766030189703713</v>
+        <v>0.7157136175037238</v>
       </c>
       <c r="E12">
-        <v>0.3993173675945698</v>
+        <v>0.2966502835726672</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007629609420184029</v>
+        <v>0.002452840320236222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2425740091792647</v>
+        <v>0.1583695898897304</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4758406186749866</v>
+        <v>1.153870206761567</v>
       </c>
       <c r="O12">
-        <v>4.528562174990157</v>
+        <v>4.589405700966267</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.035074215281554</v>
+        <v>1.905373380618869</v>
       </c>
       <c r="C13">
-        <v>1.239641782279648</v>
+        <v>0.4048675200183993</v>
       </c>
       <c r="D13">
-        <v>0.8721661418407507</v>
+        <v>0.7148586078744756</v>
       </c>
       <c r="E13">
-        <v>0.3972318903535665</v>
+        <v>0.2962391928049044</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000763328408563334</v>
+        <v>0.002453049814384177</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.241259293044692</v>
+        <v>0.1581034349969457</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4777452230883341</v>
+        <v>1.154666654522764</v>
       </c>
       <c r="O13">
-        <v>4.507696180246569</v>
+        <v>4.586863855777153</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.942744857457285</v>
+        <v>1.880751840637799</v>
       </c>
       <c r="C14">
-        <v>1.217050122360092</v>
+        <v>0.3986392389283537</v>
       </c>
       <c r="D14">
-        <v>0.8577446924994092</v>
+        <v>0.7120793865666712</v>
       </c>
       <c r="E14">
-        <v>0.3904535008802839</v>
+        <v>0.2949024725394978</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007645284368875604</v>
+        <v>0.002453736183062458</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2369862535237672</v>
+        <v>0.1572376440916941</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4840023848456028</v>
+        <v>1.157278045870363</v>
       </c>
       <c r="O14">
-        <v>4.44006046885255</v>
+        <v>4.578654447186068</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.88629904475448</v>
+        <v>1.86567832177451</v>
       </c>
       <c r="C15">
-        <v>1.203235515455219</v>
+        <v>0.3948246511900493</v>
       </c>
       <c r="D15">
-        <v>0.8489475136968281</v>
+        <v>0.7103840629942795</v>
       </c>
       <c r="E15">
-        <v>0.3863187542057531</v>
+        <v>0.2940867159703089</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007652647765055466</v>
+        <v>0.002454159035057489</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2343798579670278</v>
+        <v>0.1567090099920421</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.487869941599719</v>
+        <v>1.158888355460903</v>
       </c>
       <c r="O15">
-        <v>4.398943729873622</v>
+        <v>4.573687454469507</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.564400207194183</v>
+        <v>1.779419394551383</v>
       </c>
       <c r="C16">
-        <v>1.124406232530816</v>
+        <v>0.372971264958835</v>
       </c>
       <c r="D16">
-        <v>0.799066287615517</v>
+        <v>0.7007765131636745</v>
       </c>
       <c r="E16">
-        <v>0.3628755353813204</v>
+        <v>0.2894582261155492</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00076950527980906</v>
+        <v>0.002456619566971519</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2196035052393057</v>
+        <v>0.1537054424690467</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5105534822968636</v>
+        <v>1.168281163380811</v>
       </c>
       <c r="O16">
-        <v>4.167897510440582</v>
+        <v>4.546164552335256</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.368226564070596</v>
+        <v>1.726611087497417</v>
       </c>
       <c r="C17">
-        <v>1.076323826239502</v>
+        <v>0.3595708334009942</v>
       </c>
       <c r="D17">
-        <v>0.7689134702210936</v>
+        <v>0.6949785745345878</v>
       </c>
       <c r="E17">
-        <v>0.348705103673673</v>
+        <v>0.2866600346073582</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007721264423971373</v>
+        <v>0.002458162419221606</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2106727422785895</v>
+        <v>0.1518858383935964</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.524918286480645</v>
+        <v>1.174190270732403</v>
       </c>
       <c r="O17">
-        <v>4.030026550061734</v>
+        <v>4.530117784538447</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.255832831509906</v>
+        <v>1.696277310968981</v>
       </c>
       <c r="C18">
-        <v>1.048760850224397</v>
+        <v>0.3518654870693467</v>
       </c>
       <c r="D18">
-        <v>0.7517246499076862</v>
+        <v>0.6916789918421671</v>
       </c>
       <c r="E18">
-        <v>0.3406272967649286</v>
+        <v>0.2850657195393111</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007736417662250637</v>
+        <v>0.002459062130934236</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2055819987043606</v>
+        <v>0.1508476770939779</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5333399068149873</v>
+        <v>1.177642985256149</v>
       </c>
       <c r="O18">
-        <v>3.952066132500875</v>
+        <v>4.521195162496326</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.21785038170907</v>
+        <v>1.686013732876518</v>
       </c>
       <c r="C19">
-        <v>1.039443612914056</v>
+        <v>0.3492569769752549</v>
       </c>
       <c r="D19">
-        <v>0.7459303735484468</v>
+        <v>0.6905678587717716</v>
       </c>
       <c r="E19">
-        <v>0.3379043140914675</v>
+        <v>0.2845285083155886</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007741561918855888</v>
+        <v>0.002459368873948629</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.203865962017602</v>
+        <v>0.1504976188587221</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5362181712543546</v>
+        <v>1.178821277525699</v>
       </c>
       <c r="O19">
-        <v>3.925892585231736</v>
+        <v>4.518226779447218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.389063197659141</v>
+        <v>1.732228469539507</v>
       </c>
       <c r="C20">
-        <v>1.081432484571167</v>
+        <v>0.3609971029122789</v>
       </c>
       <c r="D20">
-        <v>0.7721070968633796</v>
+        <v>0.6955921271959369</v>
       </c>
       <c r="E20">
-        <v>0.3502059422785777</v>
+        <v>0.2869563403678015</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007718466278960603</v>
+        <v>0.002457996907388016</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2116186053432187</v>
+        <v>0.1520786657368944</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.523372509506828</v>
+        <v>1.173555651402594</v>
       </c>
       <c r="O20">
-        <v>4.044562730696725</v>
+        <v>4.531794194025792</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.969841366116043</v>
+        <v>1.8879821415577</v>
       </c>
       <c r="C21">
-        <v>1.223680900825059</v>
+        <v>0.4004685500231631</v>
       </c>
       <c r="D21">
-        <v>0.8619729782175796</v>
+        <v>0.7128942460468295</v>
       </c>
       <c r="E21">
-        <v>0.3924408604965279</v>
+        <v>0.2952944695192627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007641756937937392</v>
+        <v>0.002453534073356266</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2382390436794708</v>
+        <v>0.1574915960081853</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.482157204196632</v>
+        <v>1.156508774939482</v>
       </c>
       <c r="O21">
-        <v>4.459861172771127</v>
+        <v>4.581052927118492</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.354169375136507</v>
+        <v>1.990129631499485</v>
       </c>
       <c r="C22">
-        <v>1.317672788539028</v>
+        <v>0.4262841098836248</v>
       </c>
       <c r="D22">
-        <v>0.9223054654034399</v>
+        <v>0.7245167205864789</v>
       </c>
       <c r="E22">
-        <v>0.4208005559827868</v>
+        <v>0.3008791654036429</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007592211387394518</v>
+        <v>0.002450726259590978</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2561188066360529</v>
+        <v>0.1611047455948693</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4567654080559436</v>
+        <v>1.145848999192367</v>
       </c>
       <c r="O22">
-        <v>4.745024974880494</v>
+        <v>4.615997176734879</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.148567979380516</v>
+        <v>1.935579452685261</v>
       </c>
       <c r="C23">
-        <v>1.26740355698098</v>
+        <v>0.4125042046890712</v>
       </c>
       <c r="D23">
-        <v>0.8899468237653707</v>
+        <v>0.7182847699868944</v>
       </c>
       <c r="E23">
-        <v>0.4055895432105601</v>
+        <v>0.2978861080814283</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007618605937467271</v>
+        <v>0.002452214909597614</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2465282285136965</v>
+        <v>0.1591694108049069</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4701696840264731</v>
+        <v>1.151494233984074</v>
       </c>
       <c r="O23">
-        <v>4.591476628792122</v>
+        <v>4.597094268134981</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.379641752555301</v>
+        <v>1.729688768767289</v>
       </c>
       <c r="C24">
-        <v>1.079122612322749</v>
+        <v>0.3603522903795238</v>
       </c>
       <c r="D24">
-        <v>0.7706628045553146</v>
+        <v>0.6953146349860617</v>
       </c>
       <c r="E24">
-        <v>0.3495271995119253</v>
+        <v>0.2868223356787993</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007719731058009362</v>
+        <v>0.002458071695660588</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2111908453958762</v>
+        <v>0.1519914637279527</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5240708485927073</v>
+        <v>1.17384238996334</v>
       </c>
       <c r="O24">
-        <v>4.03798688291397</v>
+        <v>4.531035346039289</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.566671606227544</v>
+        <v>1.509139683936155</v>
       </c>
       <c r="C25">
-        <v>0.8794867974023362</v>
+        <v>0.3041836717670208</v>
       </c>
       <c r="D25">
-        <v>0.6477899819130641</v>
+        <v>0.6718843213220964</v>
       </c>
       <c r="E25">
-        <v>0.2917820052776108</v>
+        <v>0.2754663971041396</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007831800698965716</v>
+        <v>0.002464859998370672</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1747992029137464</v>
+        <v>0.1445707685890554</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5882462827128627</v>
+        <v>1.200010778155196</v>
       </c>
       <c r="O25">
-        <v>3.491325488315056</v>
+        <v>4.471509287091209</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.348055371403689</v>
+        <v>2.978214160486118</v>
       </c>
       <c r="C2">
-        <v>0.2628968873353301</v>
+        <v>0.7345230236551856</v>
       </c>
       <c r="D2">
-        <v>0.6557819579275304</v>
+        <v>0.5612346874649745</v>
       </c>
       <c r="E2">
-        <v>0.2675972005155671</v>
+        <v>0.2510925388397141</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002470267621967948</v>
+        <v>0.0007917360097315112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1393798719812906</v>
+        <v>0.1491490467505088</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.221051011966832</v>
+        <v>0.6401108729019143</v>
       </c>
       <c r="O2">
-        <v>4.437661690615897</v>
+        <v>3.123625474147644</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.239695700604386</v>
+        <v>2.583981022409546</v>
       </c>
       <c r="C3">
-        <v>0.2349589806488552</v>
+        <v>0.6371356856171815</v>
       </c>
       <c r="D3">
-        <v>0.6455821278322844</v>
+        <v>0.5045518724151066</v>
       </c>
       <c r="E3">
-        <v>0.2625688216117723</v>
+        <v>0.2244318719874556</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002474190087930312</v>
+        <v>0.0007977451279199577</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1360303736405513</v>
+        <v>0.1323324262883432</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.236415440659222</v>
+        <v>0.6778835178701961</v>
       </c>
       <c r="O3">
-        <v>4.42089757341185</v>
+        <v>2.892421892715248</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.17356139245976</v>
+        <v>2.343660593712855</v>
       </c>
       <c r="C4">
-        <v>0.2178260734181379</v>
+        <v>0.5776424117666465</v>
       </c>
       <c r="D4">
-        <v>0.6396699616170451</v>
+        <v>0.4705857580010786</v>
       </c>
       <c r="E4">
-        <v>0.2596309926111005</v>
+        <v>0.208446948060697</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002476726338975978</v>
+        <v>0.0008015448979605903</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1340563102826238</v>
+        <v>0.1222430704284605</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.246394274039631</v>
+        <v>0.7022943823201437</v>
       </c>
       <c r="O4">
-        <v>4.413634057831871</v>
+        <v>2.758233197329929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.146712050569192</v>
+        <v>2.246096661977788</v>
       </c>
       <c r="C5">
-        <v>0.2108497353663097</v>
+        <v>0.5534586706872062</v>
       </c>
       <c r="D5">
-        <v>0.6373487835328717</v>
+        <v>0.4569361446572202</v>
       </c>
       <c r="E5">
-        <v>0.2584713667083136</v>
+        <v>0.2020206924315815</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002477792132379401</v>
+        <v>0.0008031218837444731</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1332725640220005</v>
+        <v>0.1181850470448893</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.250597730104886</v>
+        <v>0.712537783839295</v>
       </c>
       <c r="O5">
-        <v>4.411433926174595</v>
+        <v>2.705353256435785</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.142259851547351</v>
+        <v>2.229916582625663</v>
       </c>
       <c r="C6">
-        <v>0.2096916543624729</v>
+        <v>0.5494461749335358</v>
       </c>
       <c r="D6">
-        <v>0.6369686712002363</v>
+        <v>0.4546807017100036</v>
       </c>
       <c r="E6">
-        <v>0.2582810787505991</v>
+        <v>0.2009586639141929</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00247797105755181</v>
+        <v>0.0008033854892243843</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.133143672218452</v>
+        <v>0.1175142801523634</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.251303984002259</v>
+        <v>0.7142562613338868</v>
       </c>
       <c r="O6">
-        <v>4.411114427340436</v>
+        <v>2.696677256671393</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.173198883399721</v>
+        <v>2.342343407667158</v>
       </c>
       <c r="C7">
-        <v>0.2177319657565988</v>
+        <v>0.5773160376102453</v>
       </c>
       <c r="D7">
-        <v>0.6396383008723774</v>
+        <v>0.470400921522014</v>
       </c>
       <c r="E7">
-        <v>0.2596152014746451</v>
+        <v>0.2083599376021894</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002476740581902594</v>
+        <v>0.0008015660490787072</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.134045656662714</v>
+        <v>0.1221881335037409</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.246450408674395</v>
+        <v>0.702431344278466</v>
       </c>
       <c r="O7">
-        <v>4.413601312365302</v>
+        <v>2.757512931798942</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.31061047343303</v>
+        <v>2.841878163201727</v>
       </c>
       <c r="C8">
-        <v>0.2532596082251359</v>
+        <v>0.7008709995101015</v>
       </c>
       <c r="D8">
-        <v>0.6521922441298784</v>
+        <v>0.5415049714382576</v>
       </c>
       <c r="E8">
-        <v>0.2658323246812699</v>
+        <v>0.2418144206965707</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002471593617456525</v>
+        <v>0.0007937856222457147</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1382077984765004</v>
+        <v>0.1432979802206589</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.226235521116131</v>
+        <v>0.6528754344590055</v>
       </c>
       <c r="O8">
-        <v>4.431251355968669</v>
+        <v>3.042199300627829</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.583228403589487</v>
+        <v>3.838698398354495</v>
       </c>
       <c r="C9">
-        <v>0.3230931164574145</v>
+        <v>0.9463608637280458</v>
       </c>
       <c r="D9">
-        <v>0.6795977730112952</v>
+        <v>0.6885050501586534</v>
       </c>
       <c r="E9">
-        <v>0.2792148934170413</v>
+        <v>0.3109173456278498</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00246251004796067</v>
+        <v>0.0007793606756176369</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1470277948504943</v>
+        <v>0.1868588289919018</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.190920491936879</v>
+        <v>0.5658759898442902</v>
       </c>
       <c r="O9">
-        <v>4.490003301918989</v>
+        <v>3.669531167280979</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.785450617833419</v>
+        <v>4.586847327721387</v>
       </c>
       <c r="C10">
-        <v>0.3745006453180508</v>
+        <v>1.129905976425107</v>
       </c>
       <c r="D10">
-        <v>0.7014428757124165</v>
+        <v>0.8025285694147044</v>
       </c>
       <c r="E10">
-        <v>0.2897795712128826</v>
+        <v>0.3645026787961854</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002456445181701357</v>
+        <v>0.0007692071988209177</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1539142153309996</v>
+        <v>0.2206290325888887</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.167614206818115</v>
+        <v>0.5089363597678442</v>
       </c>
       <c r="O10">
-        <v>4.548037263180504</v>
+        <v>4.183816891259141</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.877868854367932</v>
+        <v>4.931944330292026</v>
       </c>
       <c r="C11">
-        <v>0.3979097483191367</v>
+        <v>1.21440697569443</v>
       </c>
       <c r="D11">
-        <v>0.7117547719169295</v>
+        <v>0.8560602668578383</v>
       </c>
       <c r="E11">
-        <v>0.2947462956441456</v>
+        <v>0.3896618003943288</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002453816900889723</v>
+        <v>0.000764669170278424</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1571364530004047</v>
+        <v>0.2364871875308836</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.157585348399216</v>
+        <v>0.484739924178804</v>
       </c>
       <c r="O11">
-        <v>4.577700959428455</v>
+        <v>4.432179353541926</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.912926323236377</v>
+        <v>5.063429807733371</v>
       </c>
       <c r="C12">
-        <v>0.4067774866508671</v>
+        <v>1.246578729973919</v>
       </c>
       <c r="D12">
-        <v>0.7157136175037238</v>
+        <v>0.8766030189704566</v>
       </c>
       <c r="E12">
-        <v>0.2966502835726672</v>
+        <v>0.3993173675945485</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002452840320236222</v>
+        <v>0.0007629609420598375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1583695898897304</v>
+        <v>0.2425740091791511</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.153870206761567</v>
+        <v>0.4758406186749795</v>
       </c>
       <c r="O12">
-        <v>4.589405700966267</v>
+        <v>4.5285621749901</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.905373380618869</v>
+        <v>5.035074215281554</v>
       </c>
       <c r="C13">
-        <v>0.4048675200183993</v>
+        <v>1.239641782279762</v>
       </c>
       <c r="D13">
-        <v>0.7148586078744756</v>
+        <v>0.872166141840836</v>
       </c>
       <c r="E13">
-        <v>0.2962391928049044</v>
+        <v>0.3972318903535523</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002453049814384177</v>
+        <v>0.0007633284085636263</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1581034349969457</v>
+        <v>0.2412592930446351</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.154666654522764</v>
+        <v>0.4777452230883412</v>
       </c>
       <c r="O13">
-        <v>4.586863855777153</v>
+        <v>4.507696180246569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.880751840637799</v>
+        <v>4.942744857457001</v>
       </c>
       <c r="C14">
-        <v>0.3986392389283537</v>
+        <v>1.217050122360263</v>
       </c>
       <c r="D14">
-        <v>0.7120793865666712</v>
+        <v>0.8577446924993239</v>
       </c>
       <c r="E14">
-        <v>0.2949024725394978</v>
+        <v>0.390453500880291</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002453736183062458</v>
+        <v>0.0007645284368590716</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1572376440916941</v>
+        <v>0.2369862535237672</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.157278045870363</v>
+        <v>0.4840023848456028</v>
       </c>
       <c r="O14">
-        <v>4.578654447186068</v>
+        <v>4.44006046885255</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.86567832177451</v>
+        <v>4.886299044754537</v>
       </c>
       <c r="C15">
-        <v>0.3948246511900493</v>
+        <v>1.203235515455049</v>
       </c>
       <c r="D15">
-        <v>0.7103840629942795</v>
+        <v>0.848947513697226</v>
       </c>
       <c r="E15">
-        <v>0.2940867159703089</v>
+        <v>0.3863187542057673</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002454159035057489</v>
+        <v>0.0007652647764929827</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1567090099920421</v>
+        <v>0.2343798579669709</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.158888355460903</v>
+        <v>0.4878699415997261</v>
       </c>
       <c r="O15">
-        <v>4.573687454469507</v>
+        <v>4.398943729873565</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.779419394551383</v>
+        <v>4.564400207194296</v>
       </c>
       <c r="C16">
-        <v>0.372971264958835</v>
+        <v>1.124406232531157</v>
       </c>
       <c r="D16">
-        <v>0.7007765131636745</v>
+        <v>0.7990662876154317</v>
       </c>
       <c r="E16">
-        <v>0.2894582261155492</v>
+        <v>0.3628755353813347</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002456619566971519</v>
+        <v>0.0007695052797267639</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1537054424690467</v>
+        <v>0.2196035052392489</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.168281163380811</v>
+        <v>0.5105534822969098</v>
       </c>
       <c r="O16">
-        <v>4.546164552335256</v>
+        <v>4.167897510440639</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.726611087497417</v>
+        <v>4.368226564070596</v>
       </c>
       <c r="C17">
-        <v>0.3595708334009942</v>
+        <v>1.076323826239502</v>
       </c>
       <c r="D17">
-        <v>0.6949785745345878</v>
+        <v>0.7689134702212073</v>
       </c>
       <c r="E17">
-        <v>0.2866600346073582</v>
+        <v>0.348705103673673</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002458162419221606</v>
+        <v>0.0007721264423982484</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1518858383935964</v>
+        <v>0.2106727422785326</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.174190270732403</v>
+        <v>0.5249182864806698</v>
       </c>
       <c r="O17">
-        <v>4.530117784538447</v>
+        <v>4.030026550061734</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.696277310968981</v>
+        <v>4.255832831509679</v>
       </c>
       <c r="C18">
-        <v>0.3518654870693467</v>
+        <v>1.048760850224369</v>
       </c>
       <c r="D18">
-        <v>0.6916789918421671</v>
+        <v>0.7517246499078283</v>
       </c>
       <c r="E18">
-        <v>0.2850657195393111</v>
+        <v>0.3406272967649215</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002459062130934236</v>
+        <v>0.0007736417661686251</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1508476770939779</v>
+        <v>0.2055819987044458</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.177642985256149</v>
+        <v>0.5333399068149909</v>
       </c>
       <c r="O18">
-        <v>4.521195162496326</v>
+        <v>3.952066132500931</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.686013732876518</v>
+        <v>4.217850381708956</v>
       </c>
       <c r="C19">
-        <v>0.3492569769752549</v>
+        <v>1.039443612914027</v>
       </c>
       <c r="D19">
-        <v>0.6905678587717716</v>
+        <v>0.7459303735486742</v>
       </c>
       <c r="E19">
-        <v>0.2845285083155886</v>
+        <v>0.3379043140914533</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002459368873948629</v>
+        <v>0.0007741561918470281</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1504976188587221</v>
+        <v>0.2038659620175451</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.178821277525699</v>
+        <v>0.5362181712543048</v>
       </c>
       <c r="O19">
-        <v>4.518226779447218</v>
+        <v>3.925892585231736</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.732228469539507</v>
+        <v>4.389063197659141</v>
       </c>
       <c r="C20">
-        <v>0.3609971029122789</v>
+        <v>1.08143248457128</v>
       </c>
       <c r="D20">
-        <v>0.6955921271959369</v>
+        <v>0.7721070968634081</v>
       </c>
       <c r="E20">
-        <v>0.2869563403678015</v>
+        <v>0.3502059422785635</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002457996907388016</v>
+        <v>0.0007718466278967599</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1520786657368944</v>
+        <v>0.2116186053432898</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.173555651402594</v>
+        <v>0.5233725095067783</v>
       </c>
       <c r="O20">
-        <v>4.531794194025792</v>
+        <v>4.044562730696725</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.8879821415577</v>
+        <v>4.9698413661161</v>
       </c>
       <c r="C21">
-        <v>0.4004685500231631</v>
+        <v>1.223680900825059</v>
       </c>
       <c r="D21">
-        <v>0.7128942460468295</v>
+        <v>0.8619729782175796</v>
       </c>
       <c r="E21">
-        <v>0.2952944695192627</v>
+        <v>0.3924408604965279</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002453534073356266</v>
+        <v>0.0007641756937938652</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1574915960081853</v>
+        <v>0.2382390436794708</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.156508774939482</v>
+        <v>0.482157204196632</v>
       </c>
       <c r="O21">
-        <v>4.581052927118492</v>
+        <v>4.459861172771127</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.990129631499485</v>
+        <v>5.354169375136507</v>
       </c>
       <c r="C22">
-        <v>0.4262841098836248</v>
+        <v>1.317672788539141</v>
       </c>
       <c r="D22">
-        <v>0.7245167205864789</v>
+        <v>0.9223054654035536</v>
       </c>
       <c r="E22">
-        <v>0.3008791654036429</v>
+        <v>0.4208005559827939</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002450726259590978</v>
+        <v>0.0007592211387393234</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1611047455948693</v>
+        <v>0.2561188066360671</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.145848999192367</v>
+        <v>0.4567654080559436</v>
       </c>
       <c r="O22">
-        <v>4.615997176734879</v>
+        <v>4.745024974880437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.935579452685261</v>
+        <v>5.148567979380459</v>
       </c>
       <c r="C23">
-        <v>0.4125042046890712</v>
+        <v>1.267403556980923</v>
       </c>
       <c r="D23">
-        <v>0.7182847699868944</v>
+        <v>0.8899468237653707</v>
       </c>
       <c r="E23">
-        <v>0.2978861080814283</v>
+        <v>0.4055895432105387</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002452214909597614</v>
+        <v>0.0007618605937594707</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1591694108049069</v>
+        <v>0.2465282285137391</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.151494233984074</v>
+        <v>0.4701696840265228</v>
       </c>
       <c r="O23">
-        <v>4.597094268134981</v>
+        <v>4.591476628792009</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.729688768767289</v>
+        <v>4.379641752555358</v>
       </c>
       <c r="C24">
-        <v>0.3603522903795238</v>
+        <v>1.079122612322578</v>
       </c>
       <c r="D24">
-        <v>0.6953146349860617</v>
+        <v>0.7706628045554851</v>
       </c>
       <c r="E24">
-        <v>0.2868223356787993</v>
+        <v>0.349527199511904</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002458071695660588</v>
+        <v>0.0007719731057626027</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1519914637279527</v>
+        <v>0.2111908453958335</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.17384238996334</v>
+        <v>0.5240708485927179</v>
       </c>
       <c r="O24">
-        <v>4.531035346039289</v>
+        <v>4.03798688291397</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.509139683936155</v>
+        <v>3.566671606227544</v>
       </c>
       <c r="C25">
-        <v>0.3041836717670208</v>
+        <v>0.8794867974024498</v>
       </c>
       <c r="D25">
-        <v>0.6718843213220964</v>
+        <v>0.6477899819128936</v>
       </c>
       <c r="E25">
-        <v>0.2754663971041396</v>
+        <v>0.2917820052776392</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002464859998370672</v>
+        <v>0.0007831800699318406</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1445707685890554</v>
+        <v>0.174799202913789</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.200010778155196</v>
+        <v>0.5882462827128521</v>
       </c>
       <c r="O25">
-        <v>4.471509287091209</v>
+        <v>3.491325488315056</v>
       </c>
     </row>
   </sheetData>
